--- a/state_results/Rivers/RangitikeiatMangaweka_71217ded7b.xlsx
+++ b/state_results/Rivers/RangitikeiatMangaweka_71217ded7b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U300"/>
+  <dimension ref="A1:U321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,7 +882,7 @@
         <v>0.013</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0127013447461358</v>
+        <v>0.0127027468776229</v>
       </c>
       <c r="H6" t="n">
         <v>0.029</v>
@@ -963,7 +963,7 @@
         <v>0.013</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0127013447461358</v>
+        <v>0.0127027468776229</v>
       </c>
       <c r="H7" t="n">
         <v>0.029</v>
@@ -1118,10 +1118,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.00215</v>
+        <v>0.00228</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0173664969022539</v>
+        <v>0.0174054260286119</v>
       </c>
       <c r="H9" t="n">
         <v>0.396754829041644</v>
@@ -1132,7 +1132,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.00183</v>
+        <v>0.00192</v>
       </c>
       <c r="M9" t="n">
         <v>0.00839</v>
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.00215</v>
+        <v>0.00228</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0173664969022539</v>
+        <v>0.0174054260286119</v>
       </c>
       <c r="H10" t="n">
         <v>0.396754829041644</v>
@@ -1213,7 +1213,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.00183</v>
+        <v>0.00192</v>
       </c>
       <c r="M10" t="n">
         <v>0.00839</v>
@@ -1283,7 +1283,7 @@
         <v>0.08</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0835859459829746</v>
+        <v>0.0836211396690897</v>
       </c>
       <c r="H11" t="n">
         <v>0.26</v>
@@ -1364,7 +1364,7 @@
         <v>0.08</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0835859459829746</v>
+        <v>0.0836211396690897</v>
       </c>
       <c r="H12" t="n">
         <v>0.26</v>
@@ -1441,7 +1441,7 @@
         <v>0.095</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09530213541185931</v>
+        <v>0.09531481204037461</v>
       </c>
       <c r="H13" t="n">
         <v>0.27</v>
@@ -1455,10 +1455,10 @@
         <v>0.03</v>
       </c>
       <c r="M13" t="n">
-        <v>0.142</v>
+        <v>0.14203</v>
       </c>
       <c r="N13" t="n">
-        <v>0.17368</v>
+        <v>0.17365</v>
       </c>
       <c r="O13" t="n">
         <v>1840431.652</v>
@@ -1518,7 +1518,7 @@
         <v>0.095</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09530213541185931</v>
+        <v>0.09531481204037461</v>
       </c>
       <c r="H14" t="n">
         <v>0.27</v>
@@ -1532,10 +1532,10 @@
         <v>0.03</v>
       </c>
       <c r="M14" t="n">
-        <v>0.142</v>
+        <v>0.14203</v>
       </c>
       <c r="N14" t="n">
-        <v>0.17368</v>
+        <v>0.17365</v>
       </c>
       <c r="O14" t="n">
         <v>1840431.652</v>
@@ -1680,7 +1680,7 @@
         <v>0.0115</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0111714151520064</v>
+        <v>0.0111752917306461</v>
       </c>
       <c r="H16" t="n">
         <v>0.029</v>
@@ -1761,7 +1761,7 @@
         <v>0.0115</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0111714151520064</v>
+        <v>0.0111752917306461</v>
       </c>
       <c r="H17" t="n">
         <v>0.029</v>
@@ -1916,10 +1916,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.00127</v>
+        <v>0.00133</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0143296908462627</v>
+        <v>0.0143802480856623</v>
       </c>
       <c r="H19" t="n">
         <v>0.396754829041644</v>
@@ -1930,7 +1930,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>0.00215</v>
+        <v>0.00228</v>
       </c>
       <c r="M19" t="n">
         <v>0.00777</v>
@@ -1997,10 +1997,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.00127</v>
+        <v>0.00133</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0143296908462627</v>
+        <v>0.0143802480856623</v>
       </c>
       <c r="H20" t="n">
         <v>0.396754829041644</v>
@@ -2011,7 +2011,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>0.00215</v>
+        <v>0.00228</v>
       </c>
       <c r="M20" t="n">
         <v>0.00777</v>
@@ -2081,7 +2081,7 @@
         <v>0.09</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0921357220415768</v>
+        <v>0.0921678991260249</v>
       </c>
       <c r="H21" t="n">
         <v>0.26</v>
@@ -2162,7 +2162,7 @@
         <v>0.09</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0921357220415768</v>
+        <v>0.0921678991260249</v>
       </c>
       <c r="H22" t="n">
         <v>0.26</v>
@@ -2239,7 +2239,7 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09124246211771581</v>
+        <v>0.0912153178475452</v>
       </c>
       <c r="H23" t="n">
         <v>0.27</v>
@@ -2253,7 +2253,7 @@
         <v>0.028</v>
       </c>
       <c r="M23" t="n">
-        <v>0.14222</v>
+        <v>0.1427</v>
       </c>
       <c r="N23" t="n">
         <v>0.175</v>
@@ -2316,7 +2316,7 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09124246211771581</v>
+        <v>0.0912153178475452</v>
       </c>
       <c r="H24" t="n">
         <v>0.27</v>
@@ -2330,7 +2330,7 @@
         <v>0.028</v>
       </c>
       <c r="M24" t="n">
-        <v>0.14222</v>
+        <v>0.1427</v>
       </c>
       <c r="N24" t="n">
         <v>0.175</v>
@@ -2478,7 +2478,7 @@
         <v>0.008</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0100581960275121</v>
+        <v>0.010062171194248</v>
       </c>
       <c r="H26" t="n">
         <v>0.029</v>
@@ -2559,7 +2559,7 @@
         <v>0.008</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0100581960275121</v>
+        <v>0.010062171194248</v>
       </c>
       <c r="H27" t="n">
         <v>0.029</v>
@@ -2640,7 +2640,7 @@
         <v>40</v>
       </c>
       <c r="G28" t="n">
-        <v>162.518517940005</v>
+        <v>162.525866025164</v>
       </c>
       <c r="H28" t="n">
         <v>1950</v>
@@ -2725,7 +2725,7 @@
         <v>40</v>
       </c>
       <c r="G29" t="n">
-        <v>162.518517940005</v>
+        <v>162.525866025164</v>
       </c>
       <c r="H29" t="n">
         <v>1950</v>
@@ -2810,7 +2810,7 @@
         <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>162.518517940005</v>
+        <v>162.525866025164</v>
       </c>
       <c r="H30" t="n">
         <v>1950</v>
@@ -2895,7 +2895,7 @@
         <v>40</v>
       </c>
       <c r="G31" t="n">
-        <v>162.518517940005</v>
+        <v>162.525866025164</v>
       </c>
       <c r="H31" t="n">
         <v>1950</v>
@@ -3054,10 +3054,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.00349</v>
+        <v>0.00367</v>
       </c>
       <c r="G33" t="n">
-        <v>0.012517510609471</v>
+        <v>0.0125711887994301</v>
       </c>
       <c r="H33" t="n">
         <v>0.396754829041644</v>
@@ -3068,10 +3068,10 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>0.00434</v>
+        <v>0.0045</v>
       </c>
       <c r="M33" t="n">
-        <v>0.008160000000000001</v>
+        <v>0.008189999999999999</v>
       </c>
       <c r="N33" t="n">
         <v>0.01313</v>
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.00349</v>
+        <v>0.00367</v>
       </c>
       <c r="G34" t="n">
-        <v>0.012517510609471</v>
+        <v>0.0125711887994301</v>
       </c>
       <c r="H34" t="n">
         <v>0.396754829041644</v>
@@ -3149,10 +3149,10 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>0.00434</v>
+        <v>0.0045</v>
       </c>
       <c r="M34" t="n">
-        <v>0.008160000000000001</v>
+        <v>0.008189999999999999</v>
       </c>
       <c r="N34" t="n">
         <v>0.01313</v>
@@ -3219,7 +3219,7 @@
         <v>0.08</v>
       </c>
       <c r="G35" t="n">
-        <v>0.08956081814743749</v>
+        <v>0.0895912559300235</v>
       </c>
       <c r="H35" t="n">
         <v>0.26</v>
@@ -3300,7 +3300,7 @@
         <v>0.08</v>
       </c>
       <c r="G36" t="n">
-        <v>0.08956081814743749</v>
+        <v>0.0895912559300235</v>
       </c>
       <c r="H36" t="n">
         <v>0.26</v>
@@ -3377,7 +3377,7 @@
         <v>0.083</v>
       </c>
       <c r="G37" t="n">
-        <v>0.08908739886560441</v>
+        <v>0.08909015633715869</v>
       </c>
       <c r="H37" t="n">
         <v>0.32</v>
@@ -3391,7 +3391,7 @@
         <v>0.026</v>
       </c>
       <c r="M37" t="n">
-        <v>0.142</v>
+        <v>0.14249</v>
       </c>
       <c r="N37" t="n">
         <v>0.176</v>
@@ -3454,7 +3454,7 @@
         <v>0.083</v>
       </c>
       <c r="G38" t="n">
-        <v>0.08908739886560441</v>
+        <v>0.08909015633715869</v>
       </c>
       <c r="H38" t="n">
         <v>0.32</v>
@@ -3468,7 +3468,7 @@
         <v>0.026</v>
       </c>
       <c r="M38" t="n">
-        <v>0.142</v>
+        <v>0.14249</v>
       </c>
       <c r="N38" t="n">
         <v>0.176</v>
@@ -3531,7 +3531,7 @@
         <v>0.016</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0260200103897535</v>
+        <v>0.0260175101238627</v>
       </c>
       <c r="H39" t="n">
         <v>0.175</v>
@@ -3608,7 +3608,7 @@
         <v>0.016</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0260200103897535</v>
+        <v>0.0260175101238627</v>
       </c>
       <c r="H40" t="n">
         <v>0.175</v>
@@ -3689,7 +3689,7 @@
         <v>1.4</v>
       </c>
       <c r="G41" t="n">
-        <v>1.56522421428411</v>
+        <v>1.56514904379976</v>
       </c>
       <c r="H41" t="n">
         <v>4.53</v>
@@ -3770,7 +3770,7 @@
         <v>0.008</v>
       </c>
       <c r="G42" t="n">
-        <v>0.009397007767507201</v>
+        <v>0.0094006401932405</v>
       </c>
       <c r="H42" t="n">
         <v>0.029</v>
@@ -3781,7 +3781,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>0.00366</v>
+        <v>0.00367</v>
       </c>
       <c r="M42" t="n">
         <v>0.015</v>
@@ -3851,7 +3851,7 @@
         <v>0.008</v>
       </c>
       <c r="G43" t="n">
-        <v>0.009397007767507201</v>
+        <v>0.0094006401932405</v>
       </c>
       <c r="H43" t="n">
         <v>0.029</v>
@@ -3862,7 +3862,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.00366</v>
+        <v>0.00367</v>
       </c>
       <c r="M43" t="n">
         <v>0.015</v>
@@ -3932,7 +3932,7 @@
         <v>40</v>
       </c>
       <c r="G44" t="n">
-        <v>227.085372960005</v>
+        <v>227.092347413715</v>
       </c>
       <c r="H44" t="n">
         <v>3448</v>
@@ -4017,7 +4017,7 @@
         <v>40</v>
       </c>
       <c r="G45" t="n">
-        <v>227.085372960005</v>
+        <v>227.092347413715</v>
       </c>
       <c r="H45" t="n">
         <v>3448</v>
@@ -4102,7 +4102,7 @@
         <v>40</v>
       </c>
       <c r="G46" t="n">
-        <v>227.085372960005</v>
+        <v>227.092347413715</v>
       </c>
       <c r="H46" t="n">
         <v>3448</v>
@@ -4187,7 +4187,7 @@
         <v>40</v>
       </c>
       <c r="G47" t="n">
-        <v>227.085372960005</v>
+        <v>227.092347413715</v>
       </c>
       <c r="H47" t="n">
         <v>3448</v>
@@ -4346,10 +4346,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.00395</v>
+        <v>0.00403</v>
       </c>
       <c r="G49" t="n">
-        <v>0.012576626835802</v>
+        <v>0.0126297661038441</v>
       </c>
       <c r="H49" t="n">
         <v>0.396754829041644</v>
@@ -4363,10 +4363,10 @@
         <v>0.00452</v>
       </c>
       <c r="M49" t="n">
-        <v>0.008240000000000001</v>
+        <v>0.008359999999999999</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0137</v>
+        <v>0.01371</v>
       </c>
       <c r="O49" t="n">
         <v>1840431.652</v>
@@ -4427,10 +4427,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.00395</v>
+        <v>0.00403</v>
       </c>
       <c r="G50" t="n">
-        <v>0.012576626835802</v>
+        <v>0.0126297661038441</v>
       </c>
       <c r="H50" t="n">
         <v>0.396754829041644</v>
@@ -4444,10 +4444,10 @@
         <v>0.00452</v>
       </c>
       <c r="M50" t="n">
-        <v>0.008240000000000001</v>
+        <v>0.008359999999999999</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0137</v>
+        <v>0.01371</v>
       </c>
       <c r="O50" t="n">
         <v>1840431.652</v>
@@ -4511,7 +4511,7 @@
         <v>0.08</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0866023014895002</v>
+        <v>0.08664064657095109</v>
       </c>
       <c r="H51" t="n">
         <v>0.26</v>
@@ -4592,7 +4592,7 @@
         <v>0.08</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0866023014895002</v>
+        <v>0.08664064657095109</v>
       </c>
       <c r="H52" t="n">
         <v>0.26</v>
@@ -4666,10 +4666,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.075</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0880999040080313</v>
+        <v>0.08811947042171001</v>
       </c>
       <c r="H53" t="n">
         <v>0.32</v>
@@ -4680,10 +4680,10 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>0.022</v>
+        <v>0.02232</v>
       </c>
       <c r="M53" t="n">
-        <v>0.15347</v>
+        <v>0.1532</v>
       </c>
       <c r="N53" t="n">
         <v>0.214</v>
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.075</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0880999040080313</v>
+        <v>0.08811947042171001</v>
       </c>
       <c r="H54" t="n">
         <v>0.32</v>
@@ -4757,10 +4757,10 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>0.022</v>
+        <v>0.02232</v>
       </c>
       <c r="M54" t="n">
-        <v>0.15347</v>
+        <v>0.1532</v>
       </c>
       <c r="N54" t="n">
         <v>0.214</v>
@@ -4823,7 +4823,7 @@
         <v>0.018</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0437233411256485</v>
+        <v>0.0437214659262304</v>
       </c>
       <c r="H55" t="n">
         <v>0.739</v>
@@ -4900,7 +4900,7 @@
         <v>0.018</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0437233411256485</v>
+        <v>0.0437214659262304</v>
       </c>
       <c r="H56" t="n">
         <v>0.739</v>
@@ -4981,7 +4981,7 @@
         <v>0.985</v>
       </c>
       <c r="G57" t="n">
-        <v>1.46871351935748</v>
+        <v>1.46856449964819</v>
       </c>
       <c r="H57" t="n">
         <v>4</v>
@@ -5062,7 +5062,7 @@
         <v>0.007</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0078389107982259</v>
+        <v>0.007842273994913799</v>
       </c>
       <c r="H58" t="n">
         <v>0.029</v>
@@ -5143,7 +5143,7 @@
         <v>0.007</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0078389107982259</v>
+        <v>0.007842273994913799</v>
       </c>
       <c r="H59" t="n">
         <v>0.029</v>
@@ -5224,7 +5224,7 @@
         <v>37.5</v>
       </c>
       <c r="G60" t="n">
-        <v>245.460833340919</v>
+        <v>245.465411589937</v>
       </c>
       <c r="H60" t="n">
         <v>3448</v>
@@ -5309,7 +5309,7 @@
         <v>37.5</v>
       </c>
       <c r="G61" t="n">
-        <v>245.460833340919</v>
+        <v>245.465411589937</v>
       </c>
       <c r="H61" t="n">
         <v>3448</v>
@@ -5394,7 +5394,7 @@
         <v>37.5</v>
       </c>
       <c r="G62" t="n">
-        <v>245.460833340919</v>
+        <v>245.465411589937</v>
       </c>
       <c r="H62" t="n">
         <v>3448</v>
@@ -5479,7 +5479,7 @@
         <v>37.5</v>
       </c>
       <c r="G63" t="n">
-        <v>245.460833340919</v>
+        <v>245.465411589937</v>
       </c>
       <c r="H63" t="n">
         <v>3448</v>
@@ -5641,7 +5641,7 @@
         <v>0.00452</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0227514225389233</v>
+        <v>0.0228052842812044</v>
       </c>
       <c r="H65" t="n">
         <v>0.637452758660241</v>
@@ -5652,10 +5652,10 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.00577</v>
+        <v>0.00583</v>
       </c>
       <c r="M65" t="n">
-        <v>0.0128</v>
+        <v>0.01281</v>
       </c>
       <c r="N65" t="n">
         <v>0.04785</v>
@@ -5722,7 +5722,7 @@
         <v>0.00452</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0227514225389233</v>
+        <v>0.0228052842812044</v>
       </c>
       <c r="H66" t="n">
         <v>0.637452758660241</v>
@@ -5733,10 +5733,10 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>0.00577</v>
+        <v>0.00583</v>
       </c>
       <c r="M66" t="n">
-        <v>0.0128</v>
+        <v>0.01281</v>
       </c>
       <c r="N66" t="n">
         <v>0.04785</v>
@@ -5803,7 +5803,7 @@
         <v>0.064</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0908575247241712</v>
+        <v>0.09087940204828029</v>
       </c>
       <c r="H67" t="n">
         <v>0.26</v>
@@ -5884,7 +5884,7 @@
         <v>0.064</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0908575247241712</v>
+        <v>0.09087940204828029</v>
       </c>
       <c r="H68" t="n">
         <v>0.26</v>
@@ -5958,10 +5958,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06975000000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0948825676560781</v>
+        <v>0.09489657806436649</v>
       </c>
       <c r="H69" t="n">
         <v>0.32</v>
@@ -6035,10 +6035,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06975000000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0948825676560781</v>
+        <v>0.09489657806436649</v>
       </c>
       <c r="H70" t="n">
         <v>0.32</v>
@@ -6269,7 +6269,7 @@
         <v>0.018</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0450734473692643</v>
+        <v>0.045069346144706</v>
       </c>
       <c r="H73" t="n">
         <v>0.739</v>
@@ -6346,7 +6346,7 @@
         <v>0.018</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0450734473692643</v>
+        <v>0.045069346144706</v>
       </c>
       <c r="H74" t="n">
         <v>0.739</v>
@@ -6427,7 +6427,7 @@
         <v>0.78</v>
       </c>
       <c r="G75" t="n">
-        <v>1.36608790850864</v>
+        <v>1.36586418000074</v>
       </c>
       <c r="H75" t="n">
         <v>4</v>
@@ -6508,7 +6508,7 @@
         <v>0.006</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0067929431447796</v>
+        <v>0.0067954617603006</v>
       </c>
       <c r="H76" t="n">
         <v>0.029</v>
@@ -6519,7 +6519,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>0.00412</v>
+        <v>0.00411</v>
       </c>
       <c r="M76" t="n">
         <v>0.0083</v>
@@ -6589,7 +6589,7 @@
         <v>0.006</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0067929431447796</v>
+        <v>0.0067954617603006</v>
       </c>
       <c r="H77" t="n">
         <v>0.029</v>
@@ -6600,7 +6600,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.00412</v>
+        <v>0.00411</v>
       </c>
       <c r="M77" t="n">
         <v>0.0083</v>
@@ -7084,10 +7084,10 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.00691</v>
+        <v>0.00708</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0271943706718163</v>
+        <v>0.0272334150252125</v>
       </c>
       <c r="H83" t="n">
         <v>0.637452758660241</v>
@@ -7165,10 +7165,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.00691</v>
+        <v>0.00708</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0271943706718163</v>
+        <v>0.0272334150252125</v>
       </c>
       <c r="H84" t="n">
         <v>0.637452758660241</v>
@@ -7249,7 +7249,7 @@
         <v>0.055</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0770555156680631</v>
+        <v>0.0770670132906054</v>
       </c>
       <c r="H85" t="n">
         <v>0.244</v>
@@ -7330,7 +7330,7 @@
         <v>0.055</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0770555156680631</v>
+        <v>0.0770670132906054</v>
       </c>
       <c r="H86" t="n">
         <v>0.244</v>
@@ -7407,7 +7407,7 @@
         <v>0.061</v>
       </c>
       <c r="G87" t="n">
-        <v>0.08797043338823921</v>
+        <v>0.0879745794931483</v>
       </c>
       <c r="H87" t="n">
         <v>0.32</v>
@@ -7484,7 +7484,7 @@
         <v>0.061</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08797043338823921</v>
+        <v>0.0879745794931483</v>
       </c>
       <c r="H88" t="n">
         <v>0.32</v>
@@ -7715,7 +7715,7 @@
         <v>0.021</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0490430388674239</v>
+        <v>0.0490372477902</v>
       </c>
       <c r="H91" t="n">
         <v>0.739</v>
@@ -7792,7 +7792,7 @@
         <v>0.021</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0490430388674239</v>
+        <v>0.0490372477902</v>
       </c>
       <c r="H92" t="n">
         <v>0.739</v>
@@ -7954,10 +7954,10 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>1.5130540884318</v>
+        <v>1.51604032036388</v>
       </c>
       <c r="H94" t="n">
-        <v>5.5</v>
+        <v>5.65933543924648</v>
       </c>
       <c r="I94" t="n">
         <v>4</v>
@@ -8035,7 +8035,7 @@
         <v>0.0065</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0068148552893721</v>
+        <v>0.0068150621790094</v>
       </c>
       <c r="H95" t="n">
         <v>0.029</v>
@@ -8116,7 +8116,7 @@
         <v>0.0065</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0068148552893721</v>
+        <v>0.0068150621790094</v>
       </c>
       <c r="H96" t="n">
         <v>0.029</v>
@@ -8611,10 +8611,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.0083</v>
+        <v>0.00848</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0273618659779601</v>
+        <v>0.0273861948727658</v>
       </c>
       <c r="H102" t="n">
         <v>0.637452758660241</v>
@@ -8692,10 +8692,10 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.0083</v>
+        <v>0.00848</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0273618659779601</v>
+        <v>0.0273861948727658</v>
       </c>
       <c r="H103" t="n">
         <v>0.637452758660241</v>
@@ -8776,7 +8776,7 @@
         <v>0.048</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0607475228478117</v>
+        <v>0.0607569508982965</v>
       </c>
       <c r="H104" t="n">
         <v>0.244</v>
@@ -8787,7 +8787,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>0.008540000000000001</v>
+        <v>0.008619999999999999</v>
       </c>
       <c r="M104" t="n">
         <v>0.105</v>
@@ -8857,7 +8857,7 @@
         <v>0.048</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0607475228478117</v>
+        <v>0.0607569508982965</v>
       </c>
       <c r="H105" t="n">
         <v>0.244</v>
@@ -8868,7 +8868,7 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
-        <v>0.008540000000000001</v>
+        <v>0.008619999999999999</v>
       </c>
       <c r="M105" t="n">
         <v>0.105</v>
@@ -8934,7 +8934,7 @@
         <v>0.061</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0800037667215725</v>
+        <v>0.080051246159815</v>
       </c>
       <c r="H106" t="n">
         <v>0.32</v>
@@ -9011,7 +9011,7 @@
         <v>0.061</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0800037667215725</v>
+        <v>0.080051246159815</v>
       </c>
       <c r="H107" t="n">
         <v>0.32</v>
@@ -9242,7 +9242,7 @@
         <v>0.021</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0483263722007573</v>
+        <v>0.0483205811235333</v>
       </c>
       <c r="H110" t="n">
         <v>0.739</v>
@@ -9319,7 +9319,7 @@
         <v>0.021</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0483263722007573</v>
+        <v>0.0483205811235333</v>
       </c>
       <c r="H111" t="n">
         <v>0.739</v>
@@ -9558,13 +9558,13 @@
         <v>0.93</v>
       </c>
       <c r="G114" t="n">
-        <v>1.59149753123862</v>
+        <v>1.59442846257936</v>
       </c>
       <c r="H114" t="n">
         <v>7.249</v>
       </c>
       <c r="I114" t="n">
-        <v>5.49784</v>
+        <v>5.62747</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -9575,7 +9575,7 @@
         <v>2.532</v>
       </c>
       <c r="N114" t="n">
-        <v>4.26806</v>
+        <v>4.27</v>
       </c>
       <c r="O114" t="n">
         <v>1840431.652</v>
@@ -9639,7 +9639,7 @@
         <v>0.007</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0070529101084988</v>
+        <v>0.0070522496668517</v>
       </c>
       <c r="H115" t="n">
         <v>0.029</v>
@@ -9720,7 +9720,7 @@
         <v>0.007</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0070529101084988</v>
+        <v>0.0070522496668517</v>
       </c>
       <c r="H116" t="n">
         <v>0.029</v>
@@ -10218,7 +10218,7 @@
         <v>0.008540000000000001</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0270551339882763</v>
+        <v>0.0270662706940386</v>
       </c>
       <c r="H122" t="n">
         <v>0.637452758660241</v>
@@ -10299,7 +10299,7 @@
         <v>0.008540000000000001</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0270551339882763</v>
+        <v>0.0270662706940386</v>
       </c>
       <c r="H123" t="n">
         <v>0.637452758660241</v>
@@ -10380,7 +10380,7 @@
         <v>0.03595</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0570229357065098</v>
+        <v>0.0570307924152471</v>
       </c>
       <c r="H124" t="n">
         <v>0.244</v>
@@ -10391,7 +10391,7 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>0.00504</v>
+        <v>0.00512</v>
       </c>
       <c r="M124" t="n">
         <v>0.10728</v>
@@ -10461,7 +10461,7 @@
         <v>0.03595</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0570229357065098</v>
+        <v>0.0570307924152471</v>
       </c>
       <c r="H125" t="n">
         <v>0.244</v>
@@ -10472,7 +10472,7 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>0.00504</v>
+        <v>0.00512</v>
       </c>
       <c r="M125" t="n">
         <v>0.10728</v>
@@ -10612,10 +10612,10 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0.056</v>
+        <v>0.0559</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0727</v>
+        <v>0.072685</v>
       </c>
       <c r="H127" t="n">
         <v>0.288</v>
@@ -10629,7 +10629,7 @@
         <v>0.0125</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1242</v>
+        <v>0.12392</v>
       </c>
       <c r="N127" t="n">
         <v>0.1922</v>
@@ -10689,10 +10689,10 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.056</v>
+        <v>0.0559</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0727</v>
+        <v>0.072685</v>
       </c>
       <c r="H128" t="n">
         <v>0.288</v>
@@ -10706,7 +10706,7 @@
         <v>0.0125</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1242</v>
+        <v>0.12392</v>
       </c>
       <c r="N128" t="n">
         <v>0.1922</v>
@@ -10923,7 +10923,7 @@
         <v>0.017</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0474143659669052</v>
+        <v>0.0474100750492157</v>
       </c>
       <c r="H131" t="n">
         <v>0.739</v>
@@ -11000,7 +11000,7 @@
         <v>0.017</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0474143659669052</v>
+        <v>0.0474100750492157</v>
       </c>
       <c r="H132" t="n">
         <v>0.739</v>
@@ -11239,13 +11239,13 @@
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>1.68098151508777</v>
+        <v>1.68393159377997</v>
       </c>
       <c r="H135" t="n">
         <v>7.249</v>
       </c>
       <c r="I135" t="n">
-        <v>5.4973</v>
+        <v>5.6195</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -11256,7 +11256,7 @@
         <v>3.0975</v>
       </c>
       <c r="N135" t="n">
-        <v>4.23892</v>
+        <v>4.24</v>
       </c>
       <c r="O135" t="n">
         <v>1840431.652</v>
@@ -11320,7 +11320,7 @@
         <v>0.007</v>
       </c>
       <c r="G136" t="n">
-        <v>0.007253039804346</v>
+        <v>0.0072521394607618</v>
       </c>
       <c r="H136" t="n">
         <v>0.016</v>
@@ -11401,7 +11401,7 @@
         <v>0.007</v>
       </c>
       <c r="G137" t="n">
-        <v>0.007253039804346</v>
+        <v>0.0072521394607618</v>
       </c>
       <c r="H137" t="n">
         <v>0.016</v>
@@ -11482,7 +11482,7 @@
         <v>45</v>
       </c>
       <c r="G138" t="n">
-        <v>307.992962546761</v>
+        <v>307.992886468228</v>
       </c>
       <c r="H138" t="n">
         <v>8090</v>
@@ -11567,7 +11567,7 @@
         <v>45</v>
       </c>
       <c r="G139" t="n">
-        <v>307.992962546761</v>
+        <v>307.992886468228</v>
       </c>
       <c r="H139" t="n">
         <v>8090</v>
@@ -11652,7 +11652,7 @@
         <v>45</v>
       </c>
       <c r="G140" t="n">
-        <v>307.992962546761</v>
+        <v>307.992886468228</v>
       </c>
       <c r="H140" t="n">
         <v>8090</v>
@@ -11737,7 +11737,7 @@
         <v>45</v>
       </c>
       <c r="G141" t="n">
-        <v>307.992962546761</v>
+        <v>307.992886468228</v>
       </c>
       <c r="H141" t="n">
         <v>8090</v>
@@ -11896,10 +11896,10 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0.00708</v>
+        <v>0.00721</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0267849566091455</v>
+        <v>0.0268116809775455</v>
       </c>
       <c r="H143" t="n">
         <v>0.637452758660241</v>
@@ -11977,10 +11977,10 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.00708</v>
+        <v>0.00721</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0267849566091455</v>
+        <v>0.0268116809775455</v>
       </c>
       <c r="H144" t="n">
         <v>0.637452758660241</v>
@@ -12061,7 +12061,7 @@
         <v>0.03525</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0530021996700628</v>
+        <v>0.0530062312603743</v>
       </c>
       <c r="H145" t="n">
         <v>0.23</v>
@@ -12142,7 +12142,7 @@
         <v>0.03525</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0530021996700628</v>
+        <v>0.0530062312603743</v>
       </c>
       <c r="H146" t="n">
         <v>0.23</v>
@@ -12296,7 +12296,7 @@
         <v>0.0425</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0680074021861712</v>
+        <v>0.0679952616203699</v>
       </c>
       <c r="H148" t="n">
         <v>0.288</v>
@@ -12310,10 +12310,10 @@
         <v>0.012</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1242</v>
+        <v>0.12392</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1887</v>
+        <v>0.18856</v>
       </c>
       <c r="O148" t="n">
         <v>1840431.652</v>
@@ -12373,7 +12373,7 @@
         <v>0.0425</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0680074021861712</v>
+        <v>0.0679952616203699</v>
       </c>
       <c r="H149" t="n">
         <v>0.288</v>
@@ -12387,10 +12387,10 @@
         <v>0.012</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1242</v>
+        <v>0.12392</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1887</v>
+        <v>0.18856</v>
       </c>
       <c r="O149" t="n">
         <v>1840431.652</v>
@@ -12450,7 +12450,7 @@
         <v>0.146</v>
       </c>
       <c r="G150" t="n">
-        <v>0.202551701179631</v>
+        <v>0.202549489900624</v>
       </c>
       <c r="H150" t="n">
         <v>0.79</v>
@@ -12527,7 +12527,7 @@
         <v>0.146</v>
       </c>
       <c r="G151" t="n">
-        <v>0.202551701179631</v>
+        <v>0.202549489900624</v>
       </c>
       <c r="H151" t="n">
         <v>0.79</v>
@@ -12604,7 +12604,7 @@
         <v>0.017</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0368143659669052</v>
+        <v>0.0368100750492157</v>
       </c>
       <c r="H152" t="n">
         <v>0.221</v>
@@ -12681,7 +12681,7 @@
         <v>0.017</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0368143659669052</v>
+        <v>0.0368100750492157</v>
       </c>
       <c r="H153" t="n">
         <v>0.221</v>
@@ -12920,13 +12920,13 @@
         <v>1.5</v>
       </c>
       <c r="G156" t="n">
-        <v>1.86104408757701</v>
+        <v>1.864182150911</v>
       </c>
       <c r="H156" t="n">
         <v>7.249</v>
       </c>
       <c r="I156" t="n">
-        <v>5.49838</v>
+        <v>5.63544</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -12937,7 +12937,7 @@
         <v>3.7725</v>
       </c>
       <c r="N156" t="n">
-        <v>4.53519</v>
+        <v>4.538</v>
       </c>
       <c r="O156" t="n">
         <v>1840431.652</v>
@@ -13001,7 +13001,7 @@
         <v>0.007</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0075624712727916</v>
+        <v>0.0075615327917372</v>
       </c>
       <c r="H157" t="n">
         <v>0.016</v>
@@ -13082,7 +13082,7 @@
         <v>0.007</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0075624712727916</v>
+        <v>0.0075615327917372</v>
       </c>
       <c r="H158" t="n">
         <v>0.016</v>
@@ -13163,7 +13163,7 @@
         <v>45</v>
       </c>
       <c r="G159" t="n">
-        <v>282.174394683111</v>
+        <v>282.174140696135</v>
       </c>
       <c r="H159" t="n">
         <v>8090</v>
@@ -13248,7 +13248,7 @@
         <v>45</v>
       </c>
       <c r="G160" t="n">
-        <v>282.174394683111</v>
+        <v>282.174140696135</v>
       </c>
       <c r="H160" t="n">
         <v>8090</v>
@@ -13333,7 +13333,7 @@
         <v>45</v>
       </c>
       <c r="G161" t="n">
-        <v>282.174394683111</v>
+        <v>282.174140696135</v>
       </c>
       <c r="H161" t="n">
         <v>8090</v>
@@ -13418,7 +13418,7 @@
         <v>45</v>
       </c>
       <c r="G162" t="n">
-        <v>282.174394683111</v>
+        <v>282.174140696135</v>
       </c>
       <c r="H162" t="n">
         <v>8090</v>
@@ -13577,10 +13577,10 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0.00488</v>
+        <v>0.00506</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0094404814060791</v>
+        <v>0.0094996355887247</v>
       </c>
       <c r="H164" t="n">
         <v>0.09</v>
@@ -13591,7 +13591,7 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
-        <v>0.00625</v>
+        <v>0.0065</v>
       </c>
       <c r="M164" t="n">
         <v>0.0177</v>
@@ -13658,10 +13658,10 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0.00488</v>
+        <v>0.00506</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0094404814060791</v>
+        <v>0.0094996355887247</v>
       </c>
       <c r="H165" t="n">
         <v>0.09</v>
@@ -13672,7 +13672,7 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
-        <v>0.00625</v>
+        <v>0.0065</v>
       </c>
       <c r="M165" t="n">
         <v>0.0177</v>
@@ -13742,7 +13742,7 @@
         <v>0.0334</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0504716325467189</v>
+        <v>0.0504813673015881</v>
       </c>
       <c r="H166" t="n">
         <v>0.222</v>
@@ -13753,7 +13753,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
-        <v>0.00235</v>
+        <v>0.0024</v>
       </c>
       <c r="M166" t="n">
         <v>0.1</v>
@@ -13823,7 +13823,7 @@
         <v>0.0334</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0504716325467189</v>
+        <v>0.0504813673015881</v>
       </c>
       <c r="H167" t="n">
         <v>0.222</v>
@@ -13834,7 +13834,7 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
-        <v>0.00235</v>
+        <v>0.0024</v>
       </c>
       <c r="M167" t="n">
         <v>0.1</v>
@@ -13974,10 +13974,10 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0.038</v>
+        <v>0.03815</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0591430927550464</v>
+        <v>0.0591379959835461</v>
       </c>
       <c r="H169" t="n">
         <v>0.242</v>
@@ -13988,13 +13988,13 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
-        <v>0.01157</v>
+        <v>0.01153</v>
       </c>
       <c r="M169" t="n">
         <v>0.115</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1583</v>
+        <v>0.15823</v>
       </c>
       <c r="O169" t="n">
         <v>1840431.652</v>
@@ -14051,10 +14051,10 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0.038</v>
+        <v>0.03815</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0591430927550464</v>
+        <v>0.0591379959835461</v>
       </c>
       <c r="H170" t="n">
         <v>0.242</v>
@@ -14065,13 +14065,13 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
-        <v>0.01157</v>
+        <v>0.01153</v>
       </c>
       <c r="M170" t="n">
         <v>0.115</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1583</v>
+        <v>0.15823</v>
       </c>
       <c r="O170" t="n">
         <v>1840431.652</v>
@@ -14131,7 +14131,7 @@
         <v>0.139</v>
       </c>
       <c r="G171" t="n">
-        <v>0.185547488220817</v>
+        <v>0.185542928271283</v>
       </c>
       <c r="H171" t="n">
         <v>0.79</v>
@@ -14208,7 +14208,7 @@
         <v>0.139</v>
       </c>
       <c r="G172" t="n">
-        <v>0.185547488220817</v>
+        <v>0.185542928271283</v>
       </c>
       <c r="H172" t="n">
         <v>0.79</v>
@@ -14285,7 +14285,7 @@
         <v>0.017</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0322115696790148</v>
+        <v>0.0322080689570026</v>
       </c>
       <c r="H173" t="n">
         <v>0.216</v>
@@ -14362,7 +14362,7 @@
         <v>0.017</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0322115696790148</v>
+        <v>0.0322080689570026</v>
       </c>
       <c r="H174" t="n">
         <v>0.216</v>
@@ -14601,13 +14601,13 @@
         <v>1.45</v>
       </c>
       <c r="G177" t="n">
-        <v>1.89015199140607</v>
+        <v>1.89330250813419</v>
       </c>
       <c r="H177" t="n">
         <v>7.249</v>
       </c>
       <c r="I177" t="n">
-        <v>5.49784</v>
+        <v>5.62747</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
@@ -14618,7 +14618,7 @@
         <v>3.73</v>
       </c>
       <c r="N177" t="n">
-        <v>4.43206</v>
+        <v>4.434</v>
       </c>
       <c r="O177" t="n">
         <v>1840431.652</v>
@@ -14682,7 +14682,7 @@
         <v>0.0075</v>
       </c>
       <c r="G178" t="n">
-        <v>0.008540512071408501</v>
+        <v>0.0085397710167932</v>
       </c>
       <c r="H178" t="n">
         <v>0.025</v>
@@ -14763,7 +14763,7 @@
         <v>0.0075</v>
       </c>
       <c r="G179" t="n">
-        <v>0.008540512071408501</v>
+        <v>0.0085397710167932</v>
       </c>
       <c r="H179" t="n">
         <v>0.025</v>
@@ -14844,7 +14844,7 @@
         <v>41.5</v>
       </c>
       <c r="G180" t="n">
-        <v>138.924394683111</v>
+        <v>138.924140696135</v>
       </c>
       <c r="H180" t="n">
         <v>2300</v>
@@ -14929,7 +14929,7 @@
         <v>41.5</v>
       </c>
       <c r="G181" t="n">
-        <v>138.924394683111</v>
+        <v>138.924140696135</v>
       </c>
       <c r="H181" t="n">
         <v>2300</v>
@@ -15014,7 +15014,7 @@
         <v>41.5</v>
       </c>
       <c r="G182" t="n">
-        <v>138.924394683111</v>
+        <v>138.924140696135</v>
       </c>
       <c r="H182" t="n">
         <v>2300</v>
@@ -15099,7 +15099,7 @@
         <v>41.5</v>
       </c>
       <c r="G183" t="n">
-        <v>138.924394683111</v>
+        <v>138.924140696135</v>
       </c>
       <c r="H183" t="n">
         <v>2300</v>
@@ -15258,24 +15258,24 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0.00382</v>
+        <v>0.00394</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0056097532599991</v>
+        <v>0.0057117991824879</v>
       </c>
       <c r="H185" t="n">
         <v>0.0233860774302283</v>
       </c>
       <c r="I185" t="n">
-        <v>0.01786</v>
+        <v>0.01807</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
-        <v>0.00625</v>
+        <v>0.0065</v>
       </c>
       <c r="M185" t="n">
-        <v>0.00988</v>
+        <v>0.009990000000000001</v>
       </c>
       <c r="N185" t="n">
         <v>0.01374</v>
@@ -15339,24 +15339,24 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0.00382</v>
+        <v>0.00394</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0056097532599991</v>
+        <v>0.0057117991824879</v>
       </c>
       <c r="H186" t="n">
         <v>0.0233860774302283</v>
       </c>
       <c r="I186" t="n">
-        <v>0.01786</v>
+        <v>0.01807</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
-        <v>0.00625</v>
+        <v>0.0065</v>
       </c>
       <c r="M186" t="n">
-        <v>0.00988</v>
+        <v>0.009990000000000001</v>
       </c>
       <c r="N186" t="n">
         <v>0.01374</v>
@@ -15423,7 +15423,7 @@
         <v>0.03515</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0571561734366658</v>
+        <v>0.0571669703030089</v>
       </c>
       <c r="H187" t="n">
         <v>0.407</v>
@@ -15434,7 +15434,7 @@
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
-        <v>0.0027</v>
+        <v>0.00275</v>
       </c>
       <c r="M187" t="n">
         <v>0.11452</v>
@@ -15504,7 +15504,7 @@
         <v>0.03515</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0571561734366658</v>
+        <v>0.0571669703030089</v>
       </c>
       <c r="H188" t="n">
         <v>0.407</v>
@@ -15515,7 +15515,7 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
-        <v>0.0027</v>
+        <v>0.00275</v>
       </c>
       <c r="M188" t="n">
         <v>0.11452</v>
@@ -15655,10 +15655,10 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0.038</v>
+        <v>0.0378</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0640033122456711</v>
+        <v>0.0640066486204887</v>
       </c>
       <c r="H190" t="n">
         <v>0.415</v>
@@ -15669,13 +15669,13 @@
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
-        <v>0.01157</v>
+        <v>0.01153</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1194</v>
+        <v>0.11912</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1583</v>
+        <v>0.15823</v>
       </c>
       <c r="O190" t="n">
         <v>1840431.652</v>
@@ -15732,10 +15732,10 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0.038</v>
+        <v>0.0378</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0640033122456711</v>
+        <v>0.0640066486204887</v>
       </c>
       <c r="H191" t="n">
         <v>0.415</v>
@@ -15746,13 +15746,13 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
-        <v>0.01157</v>
+        <v>0.01153</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1194</v>
+        <v>0.11912</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1583</v>
+        <v>0.15823</v>
       </c>
       <c r="O191" t="n">
         <v>1840431.652</v>
@@ -15812,7 +15812,7 @@
         <v>0.146</v>
       </c>
       <c r="G192" t="n">
-        <v>0.189197488220817</v>
+        <v>0.189192928271283</v>
       </c>
       <c r="H192" t="n">
         <v>1.29</v>
@@ -15889,7 +15889,7 @@
         <v>0.146</v>
       </c>
       <c r="G193" t="n">
-        <v>0.189197488220817</v>
+        <v>0.189192928271283</v>
       </c>
       <c r="H193" t="n">
         <v>1.29</v>
@@ -15966,7 +15966,7 @@
         <v>0.016</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0397753115141884</v>
+        <v>0.0397735006448418</v>
       </c>
       <c r="H194" t="n">
         <v>0.887</v>
@@ -16043,7 +16043,7 @@
         <v>0.016</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0397753115141884</v>
+        <v>0.0397735006448418</v>
       </c>
       <c r="H195" t="n">
         <v>0.887</v>
@@ -16363,7 +16363,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G199" t="n">
-        <v>0.009360309871423099</v>
+        <v>0.009359476710293701</v>
       </c>
       <c r="H199" t="n">
         <v>0.025</v>
@@ -16444,7 +16444,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G200" t="n">
-        <v>0.009360309871423099</v>
+        <v>0.009359476710293701</v>
       </c>
       <c r="H200" t="n">
         <v>0.025</v>
@@ -16525,7 +16525,7 @@
         <v>34.5</v>
       </c>
       <c r="G201" t="n">
-        <v>167.591061349777</v>
+        <v>167.590807362802</v>
       </c>
       <c r="H201" t="n">
         <v>2500</v>
@@ -16610,7 +16610,7 @@
         <v>34.5</v>
       </c>
       <c r="G202" t="n">
-        <v>167.591061349777</v>
+        <v>167.590807362802</v>
       </c>
       <c r="H202" t="n">
         <v>2500</v>
@@ -16695,7 +16695,7 @@
         <v>34.5</v>
       </c>
       <c r="G203" t="n">
-        <v>167.591061349777</v>
+        <v>167.590807362802</v>
       </c>
       <c r="H203" t="n">
         <v>2500</v>
@@ -16780,7 +16780,7 @@
         <v>34.5</v>
       </c>
       <c r="G204" t="n">
-        <v>167.591061349777</v>
+        <v>167.590807362802</v>
       </c>
       <c r="H204" t="n">
         <v>2500</v>
@@ -16939,27 +16939,27 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>0.00451</v>
+        <v>0.00466</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0061422689495889</v>
+        <v>0.0062893105913244</v>
       </c>
       <c r="H206" t="n">
         <v>0.0233860774302283</v>
       </c>
       <c r="I206" t="n">
-        <v>0.01561</v>
+        <v>0.01593</v>
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
-        <v>0.0071</v>
+        <v>0.00734</v>
       </c>
       <c r="M206" t="n">
-        <v>0.01023</v>
+        <v>0.01054</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01356</v>
+        <v>0.01396</v>
       </c>
       <c r="O206" t="n">
         <v>1840431.652</v>
@@ -17020,27 +17020,27 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0.00451</v>
+        <v>0.00466</v>
       </c>
       <c r="G207" t="n">
-        <v>0.0061422689495889</v>
+        <v>0.0062893105913244</v>
       </c>
       <c r="H207" t="n">
         <v>0.0233860774302283</v>
       </c>
       <c r="I207" t="n">
-        <v>0.01561</v>
+        <v>0.01593</v>
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
-        <v>0.0071</v>
+        <v>0.00734</v>
       </c>
       <c r="M207" t="n">
-        <v>0.01023</v>
+        <v>0.01054</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01356</v>
+        <v>0.01396</v>
       </c>
       <c r="O207" t="n">
         <v>1840431.652</v>
@@ -17104,7 +17104,7 @@
         <v>0.04905</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06880926191214699</v>
+        <v>0.0688222790721241</v>
       </c>
       <c r="H208" t="n">
         <v>0.407</v>
@@ -17115,7 +17115,7 @@
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
-        <v>0.01064</v>
+        <v>0.01071</v>
       </c>
       <c r="M208" t="n">
         <v>0.12992</v>
@@ -17185,7 +17185,7 @@
         <v>0.04905</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06880926191214699</v>
+        <v>0.0688222790721241</v>
       </c>
       <c r="H209" t="n">
         <v>0.407</v>
@@ -17196,7 +17196,7 @@
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
-        <v>0.01064</v>
+        <v>0.01071</v>
       </c>
       <c r="M209" t="n">
         <v>0.12992</v>
@@ -17339,24 +17339,24 @@
         <v>0.055</v>
       </c>
       <c r="G211" t="n">
-        <v>0.0766033122456711</v>
+        <v>0.076589981953822</v>
       </c>
       <c r="H211" t="n">
         <v>0.415</v>
       </c>
       <c r="I211" t="n">
-        <v>0.1965</v>
+        <v>0.1964</v>
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
-        <v>0.021</v>
+        <v>0.02075</v>
       </c>
       <c r="M211" t="n">
         <v>0.1368</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1682</v>
+        <v>0.16817</v>
       </c>
       <c r="O211" t="n">
         <v>1840431.652</v>
@@ -17416,24 +17416,24 @@
         <v>0.055</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0766033122456711</v>
+        <v>0.076589981953822</v>
       </c>
       <c r="H212" t="n">
         <v>0.415</v>
       </c>
       <c r="I212" t="n">
-        <v>0.1965</v>
+        <v>0.1964</v>
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
-        <v>0.021</v>
+        <v>0.02075</v>
       </c>
       <c r="M212" t="n">
         <v>0.1368</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1682</v>
+        <v>0.16817</v>
       </c>
       <c r="O212" t="n">
         <v>1840431.652</v>
@@ -17493,7 +17493,7 @@
         <v>0.18</v>
       </c>
       <c r="G213" t="n">
-        <v>0.209915359044663</v>
+        <v>0.209908326926892</v>
       </c>
       <c r="H213" t="n">
         <v>1.29</v>
@@ -17570,7 +17570,7 @@
         <v>0.18</v>
       </c>
       <c r="G214" t="n">
-        <v>0.209915359044663</v>
+        <v>0.209908326926892</v>
       </c>
       <c r="H214" t="n">
         <v>1.29</v>
@@ -17647,7 +17647,7 @@
         <v>0.019</v>
       </c>
       <c r="G215" t="n">
-        <v>0.0417253115141884</v>
+        <v>0.0417235006448418</v>
       </c>
       <c r="H215" t="n">
         <v>0.887</v>
@@ -17724,7 +17724,7 @@
         <v>0.019</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0417253115141884</v>
+        <v>0.0417235006448418</v>
       </c>
       <c r="H216" t="n">
         <v>0.887</v>
@@ -17963,13 +17963,13 @@
         <v>0.705</v>
       </c>
       <c r="G219" t="n">
-        <v>1.40676051799953</v>
+        <v>1.41708131191151</v>
       </c>
       <c r="H219" t="n">
         <v>5.2</v>
       </c>
       <c r="I219" t="n">
-        <v>4.17</v>
+        <v>4.17777</v>
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
@@ -17980,7 +17980,7 @@
         <v>3</v>
       </c>
       <c r="N219" t="n">
-        <v>3.659</v>
+        <v>4.10052</v>
       </c>
       <c r="O219" t="n">
         <v>1840431.652</v>
@@ -18044,7 +18044,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G220" t="n">
-        <v>0.0099047027180964</v>
+        <v>0.009903528852128</v>
       </c>
       <c r="H220" t="n">
         <v>0.025</v>
@@ -18125,7 +18125,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G221" t="n">
-        <v>0.0099047027180964</v>
+        <v>0.009903528852128</v>
       </c>
       <c r="H221" t="n">
         <v>0.025</v>
@@ -18206,7 +18206,7 @@
         <v>51</v>
       </c>
       <c r="G222" t="n">
-        <v>174.527032375292</v>
+        <v>174.526490727454</v>
       </c>
       <c r="H222" t="n">
         <v>2500</v>
@@ -18291,7 +18291,7 @@
         <v>51</v>
       </c>
       <c r="G223" t="n">
-        <v>174.527032375292</v>
+        <v>174.526490727454</v>
       </c>
       <c r="H223" t="n">
         <v>2500</v>
@@ -18376,7 +18376,7 @@
         <v>51</v>
       </c>
       <c r="G224" t="n">
-        <v>174.527032375292</v>
+        <v>174.526490727454</v>
       </c>
       <c r="H224" t="n">
         <v>2500</v>
@@ -18461,7 +18461,7 @@
         <v>51</v>
       </c>
       <c r="G225" t="n">
-        <v>174.527032375292</v>
+        <v>174.526490727454</v>
       </c>
       <c r="H225" t="n">
         <v>2500</v>
@@ -18620,10 +18620,10 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0.00655</v>
+        <v>0.00674</v>
       </c>
       <c r="G227" t="n">
-        <v>0.0088717220997353</v>
+        <v>0.009087445295093199</v>
       </c>
       <c r="H227" t="n">
         <v>0.0526881469955625</v>
@@ -18634,13 +18634,13 @@
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.008789999999999999</v>
       </c>
       <c r="M227" t="n">
-        <v>0.01322</v>
+        <v>0.0136</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01972</v>
+        <v>0.0203</v>
       </c>
       <c r="O227" t="n">
         <v>1840431.652</v>
@@ -18701,10 +18701,10 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0.00655</v>
+        <v>0.00674</v>
       </c>
       <c r="G228" t="n">
-        <v>0.0088717220997353</v>
+        <v>0.009087445295093199</v>
       </c>
       <c r="H228" t="n">
         <v>0.0526881469955625</v>
@@ -18715,13 +18715,13 @@
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.008789999999999999</v>
       </c>
       <c r="M228" t="n">
-        <v>0.01322</v>
+        <v>0.0136</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01972</v>
+        <v>0.0203</v>
       </c>
       <c r="O228" t="n">
         <v>1840431.652</v>
@@ -18785,7 +18785,7 @@
         <v>0.056</v>
       </c>
       <c r="G229" t="n">
-        <v>0.0776143674856727</v>
+        <v>0.0776295924594345</v>
       </c>
       <c r="H229" t="n">
         <v>0.407</v>
@@ -18796,7 +18796,7 @@
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
-        <v>0.01064</v>
+        <v>0.01071</v>
       </c>
       <c r="M229" t="n">
         <v>0.1353</v>
@@ -18866,7 +18866,7 @@
         <v>0.056</v>
       </c>
       <c r="G230" t="n">
-        <v>0.0776143674856727</v>
+        <v>0.0776295924594345</v>
       </c>
       <c r="H230" t="n">
         <v>0.407</v>
@@ -18877,7 +18877,7 @@
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
-        <v>0.01064</v>
+        <v>0.01071</v>
       </c>
       <c r="M230" t="n">
         <v>0.1353</v>
@@ -19020,7 +19020,7 @@
         <v>0.06</v>
       </c>
       <c r="G232" t="n">
-        <v>0.0864199789123378</v>
+        <v>0.0864466486204887</v>
       </c>
       <c r="H232" t="n">
         <v>0.415</v>
@@ -19031,13 +19031,13 @@
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
-        <v>0.0225</v>
+        <v>0.0224</v>
       </c>
       <c r="M232" t="n">
         <v>0.145</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1971</v>
+        <v>0.19696</v>
       </c>
       <c r="O232" t="n">
         <v>1840431.652</v>
@@ -19097,7 +19097,7 @@
         <v>0.06</v>
       </c>
       <c r="G233" t="n">
-        <v>0.0864199789123378</v>
+        <v>0.0864466486204887</v>
       </c>
       <c r="H233" t="n">
         <v>0.415</v>
@@ -19108,13 +19108,13 @@
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
-        <v>0.0225</v>
+        <v>0.0224</v>
       </c>
       <c r="M233" t="n">
         <v>0.145</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1971</v>
+        <v>0.19696</v>
       </c>
       <c r="O233" t="n">
         <v>1840431.652</v>
@@ -19174,7 +19174,7 @@
         <v>0.185</v>
       </c>
       <c r="G234" t="n">
-        <v>0.23423202571133</v>
+        <v>0.234224993593559</v>
       </c>
       <c r="H234" t="n">
         <v>1.29</v>
@@ -19251,7 +19251,7 @@
         <v>0.185</v>
       </c>
       <c r="G235" t="n">
-        <v>0.23423202571133</v>
+        <v>0.234224993593559</v>
       </c>
       <c r="H235" t="n">
         <v>1.29</v>
@@ -19328,7 +19328,7 @@
         <v>0.021</v>
       </c>
       <c r="G236" t="n">
-        <v>0.0505586448475218</v>
+        <v>0.0505568339781752</v>
       </c>
       <c r="H236" t="n">
         <v>0.887</v>
@@ -19405,7 +19405,7 @@
         <v>0.021</v>
       </c>
       <c r="G237" t="n">
-        <v>0.0505586448475218</v>
+        <v>0.0505568339781752</v>
       </c>
       <c r="H237" t="n">
         <v>0.887</v>
@@ -19644,13 +19644,13 @@
         <v>0.73</v>
       </c>
       <c r="G240" t="n">
-        <v>1.6104210847275</v>
+        <v>1.52719769341471</v>
       </c>
       <c r="H240" t="n">
-        <v>13.071937285337</v>
+        <v>7.19942625862435</v>
       </c>
       <c r="I240" t="n">
-        <v>4.77614</v>
+        <v>4.9</v>
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
@@ -19725,7 +19725,7 @@
         <v>0.008</v>
       </c>
       <c r="G241" t="n">
-        <v>0.009377663781115</v>
+        <v>0.0093764700191132</v>
       </c>
       <c r="H241" t="n">
         <v>0.025</v>
@@ -19806,7 +19806,7 @@
         <v>0.008</v>
       </c>
       <c r="G242" t="n">
-        <v>0.009377663781115</v>
+        <v>0.0093764700191132</v>
       </c>
       <c r="H242" t="n">
         <v>0.025</v>
@@ -19887,7 +19887,7 @@
         <v>42</v>
       </c>
       <c r="G243" t="n">
-        <v>164.407186955834</v>
+        <v>164.40509192521</v>
       </c>
       <c r="H243" t="n">
         <v>2500</v>
@@ -19972,7 +19972,7 @@
         <v>42</v>
       </c>
       <c r="G244" t="n">
-        <v>164.407186955834</v>
+        <v>164.40509192521</v>
       </c>
       <c r="H244" t="n">
         <v>2500</v>
@@ -20057,7 +20057,7 @@
         <v>42</v>
       </c>
       <c r="G245" t="n">
-        <v>164.407186955834</v>
+        <v>164.40509192521</v>
       </c>
       <c r="H245" t="n">
         <v>2500</v>
@@ -20142,7 +20142,7 @@
         <v>42</v>
       </c>
       <c r="G246" t="n">
-        <v>164.407186955834</v>
+        <v>164.40509192521</v>
       </c>
       <c r="H246" t="n">
         <v>2500</v>
@@ -20301,27 +20301,27 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>0.00697</v>
+        <v>0.00721</v>
       </c>
       <c r="G248" t="n">
-        <v>0.0119567865284369</v>
+        <v>0.0121642982529318</v>
       </c>
       <c r="H248" t="n">
         <v>0.165</v>
       </c>
       <c r="I248" t="n">
-        <v>0.02697</v>
+        <v>0.02759</v>
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
-        <v>0.008529999999999999</v>
+        <v>0.008789999999999999</v>
       </c>
       <c r="M248" t="n">
-        <v>0.01382</v>
+        <v>0.01415</v>
       </c>
       <c r="N248" t="n">
-        <v>0.02041</v>
+        <v>0.02093</v>
       </c>
       <c r="O248" t="n">
         <v>1840431.652</v>
@@ -20382,27 +20382,27 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>0.00697</v>
+        <v>0.00721</v>
       </c>
       <c r="G249" t="n">
-        <v>0.0119567865284369</v>
+        <v>0.0121642982529318</v>
       </c>
       <c r="H249" t="n">
         <v>0.165</v>
       </c>
       <c r="I249" t="n">
-        <v>0.02697</v>
+        <v>0.02759</v>
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
-        <v>0.008529999999999999</v>
+        <v>0.008789999999999999</v>
       </c>
       <c r="M249" t="n">
-        <v>0.01382</v>
+        <v>0.01415</v>
       </c>
       <c r="N249" t="n">
-        <v>0.02041</v>
+        <v>0.02093</v>
       </c>
       <c r="O249" t="n">
         <v>1840431.652</v>
@@ -20466,7 +20466,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="G250" t="n">
-        <v>0.08539434139327901</v>
+        <v>0.0854114908567007</v>
       </c>
       <c r="H250" t="n">
         <v>0.407</v>
@@ -20477,7 +20477,7 @@
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
-        <v>0.01064</v>
+        <v>0.01071</v>
       </c>
       <c r="M250" t="n">
         <v>0.14211</v>
@@ -20547,7 +20547,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="G251" t="n">
-        <v>0.08539434139327901</v>
+        <v>0.0854114908567007</v>
       </c>
       <c r="H251" t="n">
         <v>0.407</v>
@@ -20558,7 +20558,7 @@
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
-        <v>0.01064</v>
+        <v>0.01071</v>
       </c>
       <c r="M251" t="n">
         <v>0.14211</v>
@@ -20701,7 +20701,7 @@
         <v>0.075</v>
       </c>
       <c r="G253" t="n">
-        <v>0.0940297390435592</v>
+        <v>0.0940454783052056</v>
       </c>
       <c r="H253" t="n">
         <v>0.415</v>
@@ -20778,7 +20778,7 @@
         <v>0.075</v>
       </c>
       <c r="G254" t="n">
-        <v>0.0940297390435592</v>
+        <v>0.0940454783052056</v>
       </c>
       <c r="H254" t="n">
         <v>0.415</v>
@@ -20855,7 +20855,7 @@
         <v>0.18</v>
       </c>
       <c r="G255" t="n">
-        <v>0.236149482574609</v>
+        <v>0.236144580026713</v>
       </c>
       <c r="H255" t="n">
         <v>1.29</v>
@@ -20932,7 +20932,7 @@
         <v>0.18</v>
       </c>
       <c r="G256" t="n">
-        <v>0.236149482574609</v>
+        <v>0.236144580026713</v>
       </c>
       <c r="H256" t="n">
         <v>1.29</v>
@@ -21009,7 +21009,7 @@
         <v>0.02</v>
       </c>
       <c r="G257" t="n">
-        <v>0.047364723573751</v>
+        <v>0.0473628820117036</v>
       </c>
       <c r="H257" t="n">
         <v>0.887</v>
@@ -21086,7 +21086,7 @@
         <v>0.02</v>
       </c>
       <c r="G258" t="n">
-        <v>0.047364723573751</v>
+        <v>0.0473628820117036</v>
       </c>
       <c r="H258" t="n">
         <v>0.887</v>
@@ -21325,13 +21325,13 @@
         <v>1</v>
       </c>
       <c r="G261" t="n">
-        <v>1.69342874081345</v>
+        <v>1.60869219693134</v>
       </c>
       <c r="H261" t="n">
-        <v>13.071937285337</v>
+        <v>7.19942625862435</v>
       </c>
       <c r="I261" t="n">
-        <v>5.01729</v>
+        <v>5.15</v>
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>0.008</v>
       </c>
       <c r="G262" t="n">
-        <v>0.008759408226583301</v>
+        <v>0.008758465474161399</v>
       </c>
       <c r="H262" t="n">
         <v>0.025</v>
@@ -21487,7 +21487,7 @@
         <v>0.008</v>
       </c>
       <c r="G263" t="n">
-        <v>0.008759408226583301</v>
+        <v>0.008758465474161399</v>
       </c>
       <c r="H263" t="n">
         <v>0.025</v>
@@ -21568,7 +21568,7 @@
         <v>30</v>
       </c>
       <c r="G264" t="n">
-        <v>154.527764444292</v>
+        <v>154.525850337507</v>
       </c>
       <c r="H264" t="n">
         <v>2500</v>
@@ -21653,7 +21653,7 @@
         <v>30</v>
       </c>
       <c r="G265" t="n">
-        <v>154.527764444292</v>
+        <v>154.525850337507</v>
       </c>
       <c r="H265" t="n">
         <v>2500</v>
@@ -21738,7 +21738,7 @@
         <v>30</v>
       </c>
       <c r="G266" t="n">
-        <v>154.527764444292</v>
+        <v>154.525850337507</v>
       </c>
       <c r="H266" t="n">
         <v>2500</v>
@@ -21823,7 +21823,7 @@
         <v>30</v>
       </c>
       <c r="G267" t="n">
-        <v>154.527764444292</v>
+        <v>154.525850337507</v>
       </c>
       <c r="H267" t="n">
         <v>2500</v>
@@ -21982,27 +21982,27 @@
         </is>
       </c>
       <c r="F269" t="n">
-        <v>0.00763</v>
+        <v>0.007860000000000001</v>
       </c>
       <c r="G269" t="n">
-        <v>0.0127724456167026</v>
+        <v>0.0129386531920388</v>
       </c>
       <c r="H269" t="n">
         <v>0.165</v>
       </c>
       <c r="I269" t="n">
-        <v>0.0334</v>
+        <v>0.0336</v>
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
-        <v>0.01166</v>
+        <v>0.01201</v>
       </c>
       <c r="M269" t="n">
-        <v>0.01648</v>
+        <v>0.01697</v>
       </c>
       <c r="N269" t="n">
-        <v>0.02484</v>
+        <v>0.02492</v>
       </c>
       <c r="O269" t="n">
         <v>1840431.652</v>
@@ -22063,27 +22063,27 @@
         </is>
       </c>
       <c r="F270" t="n">
-        <v>0.00763</v>
+        <v>0.007860000000000001</v>
       </c>
       <c r="G270" t="n">
-        <v>0.0127724456167026</v>
+        <v>0.0129386531920388</v>
       </c>
       <c r="H270" t="n">
         <v>0.165</v>
       </c>
       <c r="I270" t="n">
-        <v>0.0334</v>
+        <v>0.0336</v>
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
-        <v>0.01166</v>
+        <v>0.01201</v>
       </c>
       <c r="M270" t="n">
-        <v>0.01648</v>
+        <v>0.01697</v>
       </c>
       <c r="N270" t="n">
-        <v>0.02484</v>
+        <v>0.02492</v>
       </c>
       <c r="O270" t="n">
         <v>1840431.652</v>
@@ -22147,7 +22147,7 @@
         <v>0.06</v>
       </c>
       <c r="G271" t="n">
-        <v>0.08111913590666001</v>
+        <v>0.0811427730998959</v>
       </c>
       <c r="H271" t="n">
         <v>0.407</v>
@@ -22158,7 +22158,7 @@
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
-        <v>0.00603</v>
+        <v>0.00617</v>
       </c>
       <c r="M271" t="n">
         <v>0.135</v>
@@ -22228,7 +22228,7 @@
         <v>0.06</v>
       </c>
       <c r="G272" t="n">
-        <v>0.08111913590666001</v>
+        <v>0.0811427730998959</v>
       </c>
       <c r="H272" t="n">
         <v>0.407</v>
@@ -22239,7 +22239,7 @@
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
-        <v>0.00603</v>
+        <v>0.00617</v>
       </c>
       <c r="M272" t="n">
         <v>0.135</v>
@@ -22382,7 +22382,7 @@
         <v>0.065</v>
       </c>
       <c r="G274" t="n">
-        <v>0.0886205621938556</v>
+        <v>0.08862066369858571</v>
       </c>
       <c r="H274" t="n">
         <v>0.415</v>
@@ -22459,7 +22459,7 @@
         <v>0.065</v>
       </c>
       <c r="G275" t="n">
-        <v>0.0886205621938556</v>
+        <v>0.08862066369858571</v>
       </c>
       <c r="H275" t="n">
         <v>0.415</v>
@@ -22536,7 +22536,7 @@
         <v>0.18</v>
       </c>
       <c r="G276" t="n">
-        <v>0.225814783888657</v>
+        <v>0.225812269819264</v>
       </c>
       <c r="H276" t="n">
         <v>1.29</v>
@@ -22613,7 +22613,7 @@
         <v>0.18</v>
       </c>
       <c r="G277" t="n">
-        <v>0.225814783888657</v>
+        <v>0.225812269819264</v>
       </c>
       <c r="H277" t="n">
         <v>1.29</v>
@@ -23006,13 +23006,13 @@
         <v>1</v>
       </c>
       <c r="G282" t="n">
-        <v>1.90083809124499</v>
+        <v>1.81121290060046</v>
       </c>
       <c r="H282" t="n">
-        <v>13.071937285337</v>
+        <v>7.19942625862435</v>
       </c>
       <c r="I282" t="n">
-        <v>5.18231</v>
+        <v>5.61138</v>
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
@@ -23020,10 +23020,10 @@
         <v>2.9</v>
       </c>
       <c r="M282" t="n">
-        <v>3.42741</v>
+        <v>3.728</v>
       </c>
       <c r="N282" t="n">
-        <v>5.00784</v>
+        <v>5.068</v>
       </c>
       <c r="O282" t="n">
         <v>1840431.652</v>
@@ -23087,7 +23087,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G283" t="n">
-        <v>0.0088858542760806</v>
+        <v>0.0088851937509679</v>
       </c>
       <c r="H283" t="n">
         <v>0.024</v>
@@ -23168,7 +23168,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G284" t="n">
-        <v>0.0088858542760806</v>
+        <v>0.0088851937509679</v>
       </c>
       <c r="H284" t="n">
         <v>0.024</v>
@@ -23249,7 +23249,7 @@
         <v>25</v>
       </c>
       <c r="G285" t="n">
-        <v>107.784432427581</v>
+        <v>107.781705664116</v>
       </c>
       <c r="H285" t="n">
         <v>2500</v>
@@ -23334,7 +23334,7 @@
         <v>25</v>
       </c>
       <c r="G286" t="n">
-        <v>107.784432427581</v>
+        <v>107.781705664116</v>
       </c>
       <c r="H286" t="n">
         <v>2500</v>
@@ -23419,7 +23419,7 @@
         <v>25</v>
       </c>
       <c r="G287" t="n">
-        <v>107.784432427581</v>
+        <v>107.781705664116</v>
       </c>
       <c r="H287" t="n">
         <v>2500</v>
@@ -23504,7 +23504,7 @@
         <v>25</v>
       </c>
       <c r="G288" t="n">
-        <v>107.784432427581</v>
+        <v>107.781705664116</v>
       </c>
       <c r="H288" t="n">
         <v>2500</v>
@@ -23663,27 +23663,27 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0.00746</v>
+        <v>0.00752</v>
       </c>
       <c r="G290" t="n">
-        <v>0.0127022839044335</v>
+        <v>0.0128229696398403</v>
       </c>
       <c r="H290" t="n">
         <v>0.165</v>
       </c>
       <c r="I290" t="n">
-        <v>0.0334</v>
+        <v>0.0336</v>
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
-        <v>0.01286</v>
+        <v>0.01323</v>
       </c>
       <c r="M290" t="n">
-        <v>0.01678</v>
+        <v>0.01719</v>
       </c>
       <c r="N290" t="n">
-        <v>0.02484</v>
+        <v>0.02492</v>
       </c>
       <c r="O290" t="n">
         <v>1840431.652</v>
@@ -23744,27 +23744,27 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>0.00746</v>
+        <v>0.00752</v>
       </c>
       <c r="G291" t="n">
-        <v>0.0127022839044335</v>
+        <v>0.0128229696398403</v>
       </c>
       <c r="H291" t="n">
         <v>0.165</v>
       </c>
       <c r="I291" t="n">
-        <v>0.0334</v>
+        <v>0.0336</v>
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
-        <v>0.01286</v>
+        <v>0.01323</v>
       </c>
       <c r="M291" t="n">
-        <v>0.01678</v>
+        <v>0.01719</v>
       </c>
       <c r="N291" t="n">
-        <v>0.02484</v>
+        <v>0.02492</v>
       </c>
       <c r="O291" t="n">
         <v>1840431.652</v>
@@ -23828,7 +23828,7 @@
         <v>0.047</v>
       </c>
       <c r="G292" t="n">
-        <v>0.0745034597601086</v>
+        <v>0.0745274050342281</v>
       </c>
       <c r="H292" t="n">
         <v>0.27</v>
@@ -23909,7 +23909,7 @@
         <v>0.047</v>
       </c>
       <c r="G293" t="n">
-        <v>0.0745034597601086</v>
+        <v>0.0745274050342281</v>
       </c>
       <c r="H293" t="n">
         <v>0.27</v>
@@ -24063,7 +24063,7 @@
         <v>0.051</v>
       </c>
       <c r="G295" t="n">
-        <v>0.08184745762711861</v>
+        <v>0.0818220338983051</v>
       </c>
       <c r="H295" t="n">
         <v>0.3</v>
@@ -24140,7 +24140,7 @@
         <v>0.051</v>
       </c>
       <c r="G296" t="n">
-        <v>0.08184745762711861</v>
+        <v>0.0818220338983051</v>
       </c>
       <c r="H296" t="n">
         <v>0.3</v>
@@ -24217,7 +24217,7 @@
         <v>0.16</v>
       </c>
       <c r="G297" t="n">
-        <v>0.19547580083781</v>
+        <v>0.195473286768416</v>
       </c>
       <c r="H297" t="n">
         <v>1.27</v>
@@ -24294,7 +24294,7 @@
         <v>0.16</v>
       </c>
       <c r="G298" t="n">
-        <v>0.19547580083781</v>
+        <v>0.195473286768416</v>
       </c>
       <c r="H298" t="n">
         <v>1.27</v>
@@ -24499,6 +24499,1687 @@
         </is>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F301" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.4436</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0.5508</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="O301" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="P301" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S301" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T301" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F302" t="n">
+        <v>3.525</v>
+      </c>
+      <c r="G302" t="n">
+        <v>8.54149838721716</v>
+      </c>
+      <c r="H302" t="n">
+        <v>65</v>
+      </c>
+      <c r="I302" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>3.425</v>
+      </c>
+      <c r="M302" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="N302" t="n">
+        <v>26.95</v>
+      </c>
+      <c r="O302" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="P302" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T302" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U302" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F303" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G303" t="n">
+        <v>1.72829314231717</v>
+      </c>
+      <c r="H303" t="n">
+        <v>7.19942625862435</v>
+      </c>
+      <c r="I303" t="n">
+        <v>5.74138</v>
+      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M303" t="n">
+        <v>4</v>
+      </c>
+      <c r="N303" t="n">
+        <v>5.132</v>
+      </c>
+      <c r="O303" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="P303" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S303" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T303" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U303" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F304" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.008756663195085701</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0.02075</v>
+      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0.01247</v>
+      </c>
+      <c r="N304" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="O304" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="P304" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S304" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T304" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U304" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F305" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.008756663195085701</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0.02075</v>
+      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0.01247</v>
+      </c>
+      <c r="N305" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="O305" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="P305" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T305" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U305" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F306" t="n">
+        <v>30</v>
+      </c>
+      <c r="G306" t="n">
+        <v>92.1545870200482</v>
+      </c>
+      <c r="H306" t="n">
+        <v>1462</v>
+      </c>
+      <c r="I306" t="n">
+        <v>407.55</v>
+      </c>
+      <c r="J306" t="n">
+        <v>1.69491525423729</v>
+      </c>
+      <c r="K306" t="n">
+        <v>6.77966101694915</v>
+      </c>
+      <c r="L306" t="n">
+        <v>32</v>
+      </c>
+      <c r="M306" t="n">
+        <v>125</v>
+      </c>
+      <c r="N306" t="n">
+        <v>243.6</v>
+      </c>
+      <c r="O306" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="P306" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S306" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T306" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F307" t="n">
+        <v>30</v>
+      </c>
+      <c r="G307" t="n">
+        <v>92.1545870200482</v>
+      </c>
+      <c r="H307" t="n">
+        <v>1462</v>
+      </c>
+      <c r="I307" t="n">
+        <v>407.55</v>
+      </c>
+      <c r="J307" t="n">
+        <v>1.69491525423729</v>
+      </c>
+      <c r="K307" t="n">
+        <v>6.77966101694915</v>
+      </c>
+      <c r="L307" t="n">
+        <v>32</v>
+      </c>
+      <c r="M307" t="n">
+        <v>125</v>
+      </c>
+      <c r="N307" t="n">
+        <v>243.6</v>
+      </c>
+      <c r="O307" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="P307" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S307" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T307" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U307" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F308" t="n">
+        <v>30</v>
+      </c>
+      <c r="G308" t="n">
+        <v>92.1545870200482</v>
+      </c>
+      <c r="H308" t="n">
+        <v>1462</v>
+      </c>
+      <c r="I308" t="n">
+        <v>407.55</v>
+      </c>
+      <c r="J308" t="n">
+        <v>1.69491525423729</v>
+      </c>
+      <c r="K308" t="n">
+        <v>6.77966101694915</v>
+      </c>
+      <c r="L308" t="n">
+        <v>32</v>
+      </c>
+      <c r="M308" t="n">
+        <v>125</v>
+      </c>
+      <c r="N308" t="n">
+        <v>243.6</v>
+      </c>
+      <c r="O308" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="P308" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T308" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U308" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F309" t="n">
+        <v>30</v>
+      </c>
+      <c r="G309" t="n">
+        <v>92.1545870200482</v>
+      </c>
+      <c r="H309" t="n">
+        <v>1462</v>
+      </c>
+      <c r="I309" t="n">
+        <v>407.55</v>
+      </c>
+      <c r="J309" t="n">
+        <v>1.69491525423729</v>
+      </c>
+      <c r="K309" t="n">
+        <v>6.77966101694915</v>
+      </c>
+      <c r="L309" t="n">
+        <v>32</v>
+      </c>
+      <c r="M309" t="n">
+        <v>125</v>
+      </c>
+      <c r="N309" t="n">
+        <v>243.6</v>
+      </c>
+      <c r="O309" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="P309" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T309" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F310" t="n">
+        <v>101.67</v>
+      </c>
+      <c r="G310" t="n">
+        <v>104.58</v>
+      </c>
+      <c r="H310" t="n">
+        <v>116</v>
+      </c>
+      <c r="I310" t="n">
+        <v>116</v>
+      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>108</v>
+      </c>
+      <c r="M310" t="n">
+        <v>115.65</v>
+      </c>
+      <c r="N310" t="n">
+        <v>116</v>
+      </c>
+      <c r="O310" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="P310" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S310" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T310" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F311" t="n">
+        <v>0.00679</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.0126271646162821</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0.0336</v>
+      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>0.00949</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0.01879</v>
+      </c>
+      <c r="N311" t="n">
+        <v>0.02593</v>
+      </c>
+      <c r="O311" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="P311" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S311" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T311" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U311" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F312" t="n">
+        <v>0.00679</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.0126271646162821</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0.0336</v>
+      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>0.00949</v>
+      </c>
+      <c r="M312" t="n">
+        <v>0.01879</v>
+      </c>
+      <c r="N312" t="n">
+        <v>0.02593</v>
+      </c>
+      <c r="O312" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="P312" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T312" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U312" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F313" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.0824525147605516</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0.25645</v>
+      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="M313" t="n">
+        <v>0.14863</v>
+      </c>
+      <c r="N313" t="n">
+        <v>0.2326</v>
+      </c>
+      <c r="O313" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="P313" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S313" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T313" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U313" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F314" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.0824525147605516</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0.25645</v>
+      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="M314" t="n">
+        <v>0.14863</v>
+      </c>
+      <c r="N314" t="n">
+        <v>0.2326</v>
+      </c>
+      <c r="O314" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="P314" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S314" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T314" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U314" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F315" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="G315" t="n">
+        <v>5.4046</v>
+      </c>
+      <c r="H315" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="I315" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>5.4735</v>
+      </c>
+      <c r="M315" t="n">
+        <v>6.4676</v>
+      </c>
+      <c r="N315" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="O315" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="P315" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S315" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T315" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr"/>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F316" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.08901694915254239</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0.28235</v>
+      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M316" t="n">
+        <v>0.1591</v>
+      </c>
+      <c r="N316" t="n">
+        <v>0.24994</v>
+      </c>
+      <c r="O316" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="P316" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S316" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T316" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U316" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F317" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.08901694915254239</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0.28235</v>
+      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M317" t="n">
+        <v>0.1591</v>
+      </c>
+      <c r="N317" t="n">
+        <v>0.24994</v>
+      </c>
+      <c r="O317" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="P317" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S317" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T317" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U317" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr"/>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F318" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.216271186440678</v>
+      </c>
+      <c r="H318" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M318" t="n">
+        <v>0.2947</v>
+      </c>
+      <c r="N318" t="n">
+        <v>0.3978</v>
+      </c>
+      <c r="O318" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="P318" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S318" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T318" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U318" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr"/>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F319" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.216271186440678</v>
+      </c>
+      <c r="H319" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M319" t="n">
+        <v>0.2947</v>
+      </c>
+      <c r="N319" t="n">
+        <v>0.3978</v>
+      </c>
+      <c r="O319" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="P319" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S319" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T319" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U319" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F320" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.0523220338983051</v>
+      </c>
+      <c r="H320" t="n">
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0.11945</v>
+      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="M320" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="N320" t="n">
+        <v>0.0808</v>
+      </c>
+      <c r="O320" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="P320" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S320" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T320" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U320" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F321" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.0523220338983051</v>
+      </c>
+      <c r="H321" t="n">
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0.11945</v>
+      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="M321" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="N321" t="n">
+        <v>0.0808</v>
+      </c>
+      <c r="O321" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="P321" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S321" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T321" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U321" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/RangitikeiatMangaweka_71217ded7b.xlsx
+++ b/state_results/Rivers/RangitikeiatMangaweka_71217ded7b.xlsx
@@ -7954,10 +7954,10 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>1.51604032036388</v>
+        <v>1.51620847363911</v>
       </c>
       <c r="H94" t="n">
-        <v>5.65933543924648</v>
+        <v>5.66824756283375</v>
       </c>
       <c r="I94" t="n">
         <v>4</v>
@@ -9558,13 +9558,13 @@
         <v>0.93</v>
       </c>
       <c r="G114" t="n">
-        <v>1.59442846257936</v>
+        <v>1.59459350190505</v>
       </c>
       <c r="H114" t="n">
         <v>7.249</v>
       </c>
       <c r="I114" t="n">
-        <v>5.62747</v>
+        <v>5.6346</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -11239,13 +11239,13 @@
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>1.68393159377997</v>
+        <v>1.68409363239064</v>
       </c>
       <c r="H135" t="n">
         <v>7.249</v>
       </c>
       <c r="I135" t="n">
-        <v>5.6195</v>
+        <v>5.62619</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -12920,13 +12920,13 @@
         <v>1.5</v>
       </c>
       <c r="G156" t="n">
-        <v>1.864182150911</v>
+        <v>1.86435030418623</v>
       </c>
       <c r="H156" t="n">
         <v>7.249</v>
       </c>
       <c r="I156" t="n">
-        <v>5.63544</v>
+        <v>5.64301</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -14601,13 +14601,13 @@
         <v>1.45</v>
       </c>
       <c r="G177" t="n">
-        <v>1.89330250813419</v>
+        <v>1.89346754745988</v>
       </c>
       <c r="H177" t="n">
         <v>7.249</v>
       </c>
       <c r="I177" t="n">
-        <v>5.62747</v>
+        <v>5.6346</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
@@ -17963,13 +17963,13 @@
         <v>0.705</v>
       </c>
       <c r="G219" t="n">
-        <v>1.41708131191151</v>
+        <v>1.40364063158771</v>
       </c>
       <c r="H219" t="n">
         <v>5.2</v>
       </c>
       <c r="I219" t="n">
-        <v>4.17777</v>
+        <v>4.17</v>
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
@@ -17980,7 +17980,7 @@
         <v>3</v>
       </c>
       <c r="N219" t="n">
-        <v>4.10052</v>
+        <v>3.659</v>
       </c>
       <c r="O219" t="n">
         <v>1840431.652</v>
@@ -19644,10 +19644,10 @@
         <v>0.73</v>
       </c>
       <c r="G240" t="n">
-        <v>1.52719769341471</v>
+        <v>1.52104519249663</v>
       </c>
       <c r="H240" t="n">
-        <v>7.19942625862435</v>
+        <v>8.06392558516281</v>
       </c>
       <c r="I240" t="n">
         <v>4.9</v>
@@ -21325,10 +21325,10 @@
         <v>1</v>
       </c>
       <c r="G261" t="n">
-        <v>1.60869219693134</v>
+        <v>1.60242783236021</v>
       </c>
       <c r="H261" t="n">
-        <v>7.19942625862435</v>
+        <v>8.06392558516281</v>
       </c>
       <c r="I261" t="n">
         <v>5.15</v>
@@ -23006,13 +23006,13 @@
         <v>1</v>
       </c>
       <c r="G282" t="n">
-        <v>1.81121290060046</v>
+        <v>1.80458713038099</v>
       </c>
       <c r="H282" t="n">
-        <v>7.19942625862435</v>
+        <v>8.06392558516281</v>
       </c>
       <c r="I282" t="n">
-        <v>5.61138</v>
+        <v>5.20066</v>
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
@@ -23020,7 +23020,7 @@
         <v>2.9</v>
       </c>
       <c r="M282" t="n">
-        <v>3.728</v>
+        <v>3.31433</v>
       </c>
       <c r="N282" t="n">
         <v>5.068</v>
@@ -24687,13 +24687,13 @@
         <v>0.825</v>
       </c>
       <c r="G303" t="n">
-        <v>1.72829314231717</v>
+        <v>1.7211152245794</v>
       </c>
       <c r="H303" t="n">
-        <v>7.19942625862435</v>
+        <v>8.06392558516281</v>
       </c>
       <c r="I303" t="n">
-        <v>5.74138</v>
+        <v>5.33066</v>
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
@@ -24701,7 +24701,7 @@
         <v>2.9</v>
       </c>
       <c r="M303" t="n">
-        <v>4</v>
+        <v>3.58633</v>
       </c>
       <c r="N303" t="n">
         <v>5.132</v>
